--- a/biology/Zoologie/Celastrina_nigra/Celastrina_nigra.xlsx
+++ b/biology/Zoologie/Celastrina_nigra/Celastrina_nigra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Celastrina nigra est une espèce de papillons de la famille des Lycaenidae, de la sous-famille des Polyommatinae, du genre Celastrina.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Celastrina nigra a été nommé par William Forbes (d) en 1960.
-Synonyme : Celastrina ebenina Clench, 1972[2].
-Noms vernaculaires
-Celastrina nigra se nomme en anglais Dusky Azure, Spring Sooty ou encore Sooty Azure[2].
+Synonyme : Celastrina ebenina Clench, 1972.
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Azur estival est un petit papillon d'une envergure de 22 à 32 mm, qui présence un dimorphisme sexuel : le dessus du mâle est d'un gris marron, presque noir celui de la femelle est gris-bleu clair bordé de gris marron
-Le revers est gris pâle, orné d'une ligne submarginale de points très noirs surmontés d'une ligne de chevrons[3],[4]
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celastrina nigra se nomme en anglais Dusky Azure, Spring Sooty ou encore Sooty Azure.
 </t>
         </is>
       </c>
@@ -574,16 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération en avril et mai[3].
-Il hiverne au stade nymphal[4].
-Plantes hôtes
-La plante hôte de sa chenille est  Aruncus dioicus[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Azur estival est un petit papillon d'une envergure de 22 à 32 mm, qui présence un dimorphisme sexuel : le dessus du mâle est d'un gris marron, presque noir celui de la femelle est gris-bleu clair bordé de gris marron
+Le revers est gris pâle, orné d'une ligne submarginale de points très noirs surmontés d'une ligne de chevrons,
 </t>
         </is>
       </c>
@@ -609,16 +625,163 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération en avril et mai.
+Il hiverne au stade nymphal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Celastrina_nigra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celastrina_nigra</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est  Aruncus dioicus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Celastrina_nigra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celastrina_nigra</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Azur estival est présent en Amérique du Nord, dans l'Est des États-Unis dans les Appalaches, dans les États de Pennsylvanie, Virginie, Virginie-Occidentale, dans le Sud de l'Ohio, le Kentucky, l'Est du Tennessee et l'Ouest de la Caroline du Nord ainsi que sous forme d'isolats en Illinois, Missouri, Arkansas et Mississippi[4].
-Biotope
-Il est présent dans les bois clairs.
-Protection
-Son habitat doit être protégé des plantes invasives[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Azur estival est présent en Amérique du Nord, dans l'Est des États-Unis dans les Appalaches, dans les États de Pennsylvanie, Virginie, Virginie-Occidentale, dans le Sud de l'Ohio, le Kentucky, l'Est du Tennessee et l'Ouest de la Caroline du Nord ainsi que sous forme d'isolats en Illinois, Missouri, Arkansas et Mississippi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Celastrina_nigra</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celastrina_nigra</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans les bois clairs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Celastrina_nigra</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celastrina_nigra</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat doit être protégé des plantes invasives.
 </t>
         </is>
       </c>
